--- a/Comprehensive employee data of a startup TK.xlsx
+++ b/Comprehensive employee data of a startup TK.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a8bd60b8f429f53/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9A8BD60B8F429F53/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="888" documentId="8_{0C3F4138-80DF-4716-AD2C-64E9BFB84D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E5B1189-ADC3-4B35-B67F-B6608581A460}"/>
+  <xr:revisionPtr revIDLastSave="889" documentId="8_{0C3F4138-80DF-4716-AD2C-64E9BFB84D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6823AEB3-84FE-42D6-90D9-2BBD8728998F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{02A87BA5-FEA4-4B40-B1C7-3B0786B4950F}"/>
   </bookViews>
@@ -43,9 +43,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="80">
   <si>
-    <t>Employee Master</t>
-  </si>
-  <si>
     <t xml:space="preserve">EMPlOYEE IDs </t>
   </si>
   <si>
@@ -281,6 +278,9 @@
   </si>
   <si>
     <t xml:space="preserve">PIVIOT TABLE </t>
+  </si>
+  <si>
+    <t>Comprehensive Employee Data of a Startup – TK</t>
   </si>
 </sst>
 </file>
@@ -605,33 +605,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -697,6 +697,112 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -706,12 +812,18 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
+        <sz val="11"/>
+        <color theme="0"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -724,18 +836,268 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="16"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.59999389629810485"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -801,430 +1163,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.59999389629810485"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1390,6 +1328,40 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1572,6 +1544,34 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -4375,25 +4375,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6BC6118D-49FE-44BD-B967-C3F0E1C0FFC9}" name="Table35" displayName="Table35" ref="A2:L15" totalsRowShown="0" headerRowDxfId="4" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40" totalsRowBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6BC6118D-49FE-44BD-B967-C3F0E1C0FFC9}" name="Table35" displayName="Table35" ref="A2:L15" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39" totalsRowBorderDxfId="38">
   <autoFilter ref="A2:L15" xr:uid="{6BC6118D-49FE-44BD-B967-C3F0E1C0FFC9}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{EE04675D-806A-4BCF-A4AD-F2C5C2CB2C55}" name="EMPlOYEE IDs " dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{E5CE927E-A62D-4707-9008-A0C86CA2087B}" name="IMAGE" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{AD4145A1-2B25-4467-A17D-B1F0CB42801D}" name="NAMES2" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{800397E6-D223-4CD1-953A-417F07BB41EF}" name="DEPARTMENT" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{B67AD949-39E7-4336-968A-AB96CDCA9DDE}" name="PAYROLL" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{A0B29B55-51C5-4E1C-B9CD-07C301A026A5}" name="ALLOWENCE" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{3CD26DEB-1C78-4F0D-A751-E0E8F3B01F71}" name="DEDUCTIONS" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{95A8F9C9-5B05-4DC3-9588-7089D4966D9E}" name="PERFORMANCE SCORE" dataDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{EE5DF96B-3FFA-43D4-9825-679AE5DD675D}" name="WORK HOURS MONTH" dataDxfId="31"/>
-    <tableColumn id="10" xr3:uid="{92753A81-E005-43F2-BA7C-AF672749B385}" name="NET SALARY " dataDxfId="30">
+    <tableColumn id="1" xr3:uid="{EE04675D-806A-4BCF-A4AD-F2C5C2CB2C55}" name="EMPlOYEE IDs " dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{E5CE927E-A62D-4707-9008-A0C86CA2087B}" name="IMAGE" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{AD4145A1-2B25-4467-A17D-B1F0CB42801D}" name="NAMES2" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{800397E6-D223-4CD1-953A-417F07BB41EF}" name="DEPARTMENT" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{B67AD949-39E7-4336-968A-AB96CDCA9DDE}" name="PAYROLL" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{A0B29B55-51C5-4E1C-B9CD-07C301A026A5}" name="ALLOWENCE" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{3CD26DEB-1C78-4F0D-A751-E0E8F3B01F71}" name="DEDUCTIONS" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{95A8F9C9-5B05-4DC3-9588-7089D4966D9E}" name="PERFORMANCE SCORE" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{EE5DF96B-3FFA-43D4-9825-679AE5DD675D}" name="WORK HOURS MONTH" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{92753A81-E005-43F2-BA7C-AF672749B385}" name="NET SALARY " dataDxfId="28">
       <calculatedColumnFormula>E3+F3-G3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{FEA9ECA2-B670-4CE7-AC1C-ED2325E95BEA}" name="HIGH PERFORMENCE" dataDxfId="29">
+    <tableColumn id="11" xr3:uid="{FEA9ECA2-B670-4CE7-AC1C-ED2325E95BEA}" name="HIGH PERFORMENCE" dataDxfId="27">
       <calculatedColumnFormula>IF(H3&gt;=8,"Yes","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{01771738-7507-4CCD-874F-E32E145E8A67}" name="RISK " dataDxfId="28">
+    <tableColumn id="12" xr3:uid="{01771738-7507-4CCD-874F-E32E145E8A67}" name="RISK " dataDxfId="26">
       <calculatedColumnFormula>IF(H3&lt;7,"Yes","")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4413,10 +4413,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{E3960992-A15C-4761-984D-8043CE6478AF}" name="Table15" displayName="Table15" ref="G17:G18" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{E3960992-A15C-4761-984D-8043CE6478AF}" name="Table15" displayName="Table15" ref="G17:G18" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="G17:G18" xr:uid="{E3960992-A15C-4761-984D-8043CE6478AF}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{9C887A02-9DC5-4D9E-84EF-FF26E5D8EFB4}" name="CORELATION OF HOURS AND SALARY" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{9C887A02-9DC5-4D9E-84EF-FF26E5D8EFB4}" name="CORELATION OF HOURS AND SALARY" dataDxfId="23">
       <calculatedColumnFormula>CORREL('Employee Master'!H3:H14,'Employee Master'!G3:G14)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4439,15 +4439,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{E60BEA82-E69D-4F18-AD9B-44CF85693ABC}" name="Table9" displayName="Table9" ref="A2:G15" totalsRowShown="0">
   <autoFilter ref="A2:G15" xr:uid="{E60BEA82-E69D-4F18-AD9B-44CF85693ABC}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{72D2E9DA-C496-451B-8E30-BB8A1D30F6E2}" name="EMPlOYEE IDs" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{C71C5E07-1058-41FF-AA97-A6D7CAB0CA0B}" name="DEPARTMENT" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{0C645308-2A38-4891-AC86-56329250EC38}" name="PAYROLL" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{FF4EB4CB-5AC4-49B0-B3BD-C8B19789E6C5}" name="ALLOWENCE" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{718DB2A5-43F4-4657-AF0B-CA2E2B422400}" name="DEDUCTIONS" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{03FC4D52-14E0-4B1A-AADC-215AF8376A8C}" name="NET SALARY" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{72D2E9DA-C496-451B-8E30-BB8A1D30F6E2}" name="EMPlOYEE IDs" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{C71C5E07-1058-41FF-AA97-A6D7CAB0CA0B}" name="DEPARTMENT" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{0C645308-2A38-4891-AC86-56329250EC38}" name="PAYROLL" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{FF4EB4CB-5AC4-49B0-B3BD-C8B19789E6C5}" name="ALLOWENCE" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{718DB2A5-43F4-4657-AF0B-CA2E2B422400}" name="DEDUCTIONS" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{03FC4D52-14E0-4B1A-AADC-215AF8376A8C}" name="NET SALARY" dataDxfId="17">
       <calculatedColumnFormula>C3+D3-E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2D3689D6-D9F3-4487-982D-8D9D3FC1892D}" name="INCREMENT RATE" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{2D3689D6-D9F3-4487-982D-8D9D3FC1892D}" name="INCREMENT RATE" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4457,15 +4457,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{E82F959E-5996-4523-95F5-96569D81DC04}" name="Table11" displayName="Table11" ref="H2:J15" totalsRowCount="1">
   <autoFilter ref="H2:J14" xr:uid="{E82F959E-5996-4523-95F5-96569D81DC04}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{EA618B8A-675B-4BFF-93BF-565F451D21F0}" name="NEW PAYROLL " totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="19">
+    <tableColumn id="1" xr3:uid="{EA618B8A-675B-4BFF-93BF-565F451D21F0}" name="NEW PAYROLL " totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula>G3/100*C3+C3</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table11[[NEW PAYROLL ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EDCA768E-8789-44B3-A93E-7E8331D4C038}" name="NEW NET SALARY " totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="17">
+    <tableColumn id="2" xr3:uid="{EDCA768E-8789-44B3-A93E-7E8331D4C038}" name="NEW NET SALARY " totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>H3-E3</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table11[[NEW NET SALARY ]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{72ED21F1-EC67-43AA-8386-582BB19FB5E3}" name="PAYROLL  INCRESE" dataDxfId="16">
+    <tableColumn id="3" xr3:uid="{72ED21F1-EC67-43AA-8386-582BB19FB5E3}" name="PAYROLL  INCRESE" dataDxfId="11">
       <calculatedColumnFormula>Table11[[#This Row],[NEW PAYROLL ]]-Table9[[#This Row],[PAYROLL]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4474,7 +4474,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{DA65DDED-6131-40D6-81EF-2D4D364EB7C4}" name="Table12" displayName="Table12" ref="AA43:AA44" insertRow="1" totalsRowShown="0" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{DA65DDED-6131-40D6-81EF-2D4D364EB7C4}" name="Table12" displayName="Table12" ref="AA43:AA44" insertRow="1" totalsRowShown="0" tableBorderDxfId="10">
   <autoFilter ref="AA43:AA44" xr:uid="{DA65DDED-6131-40D6-81EF-2D4D364EB7C4}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{0584ECF2-DF28-4F3D-A22F-DB4AAC7C80F4}" name="Column1"/>
@@ -4500,11 +4500,11 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2961BFC1-7806-4616-A8AE-D94205FBBBF6}" name="Table1" displayName="Table1" ref="A2:B14" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2961BFC1-7806-4616-A8AE-D94205FBBBF6}" name="Table1" displayName="Table1" ref="A2:B14" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="A2:B14" xr:uid="{2961BFC1-7806-4616-A8AE-D94205FBBBF6}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F3923AA6-ACBE-498F-BFFC-4965E911C8EA}" name="NAMES" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{C76937E4-5C1F-46A6-AA63-F1D9C322CE54}" name="PAYROLL" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{F3923AA6-ACBE-498F-BFFC-4965E911C8EA}" name="NAMES" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{C76937E4-5C1F-46A6-AA63-F1D9C322CE54}" name="PAYROLL" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4842,8 +4842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF032FC-8426-47DF-8771-E7D964E97DD1}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="75" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="112" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4862,69 +4862,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="35"/>
-    </row>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="F2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="G2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="H2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="I2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="J2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="K2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="L2" s="32" t="s">
         <v>10</v>
-      </c>
-      <c r="L2" s="37" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="107.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>14</v>
       </c>
       <c r="E3" s="22">
         <v>32000</v>
@@ -4939,10 +4939,10 @@
         <v>7</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J3" s="22">
-        <f t="shared" ref="J3:J15" si="0">E3+F3-G3</f>
+        <f t="shared" ref="J3:J14" si="0">E3+F3-G3</f>
         <v>38000</v>
       </c>
       <c r="K3" s="22" t="str">
@@ -4956,19 +4956,19 @@
     </row>
     <row r="4" spans="1:13" ht="100.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>16</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>17</v>
       </c>
       <c r="E4" s="22">
         <v>45000</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="33">
         <v>12000</v>
       </c>
       <c r="G4" s="22">
@@ -4996,14 +4996,14 @@
     </row>
     <row r="5" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>20</v>
       </c>
       <c r="E5" s="22">
         <v>28000</v>
@@ -5032,14 +5032,14 @@
     </row>
     <row r="6" spans="1:13" ht="85.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>23</v>
       </c>
       <c r="E6" s="22">
         <v>50000</v>
@@ -5071,14 +5071,14 @@
     </row>
     <row r="7" spans="1:13" ht="83.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="22">
         <v>35000</v>
@@ -5110,14 +5110,14 @@
     </row>
     <row r="8" spans="1:13" ht="82.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="22">
         <v>60000</v>
@@ -5149,14 +5149,14 @@
     </row>
     <row r="9" spans="1:13" ht="88.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="22">
         <v>30000</v>
@@ -5188,14 +5188,14 @@
     </row>
     <row r="10" spans="1:13" ht="86.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>31</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>32</v>
       </c>
       <c r="E10" s="22">
         <v>40000</v>
@@ -5227,14 +5227,14 @@
     </row>
     <row r="11" spans="1:13" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="22">
         <v>55000</v>
@@ -5266,14 +5266,14 @@
     </row>
     <row r="12" spans="1:13" ht="99" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="22">
         <v>37000</v>
@@ -5305,14 +5305,14 @@
     </row>
     <row r="13" spans="1:13" ht="86.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="22">
         <v>48000</v>
@@ -5344,14 +5344,14 @@
     </row>
     <row r="14" spans="1:13" ht="101.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" s="22">
         <v>42000</v>
@@ -5419,12 +5419,12 @@
       <c r="L16" s="27"/>
     </row>
     <row r="17" spans="7:7" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="G17" s="30" t="s">
-        <v>41</v>
+      <c r="G17" s="28" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="7:7" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="G18" s="30">
+      <c r="G18" s="28">
         <f>CORREL('Employee Master'!H3:H14,'Employee Master'!G3:G14)</f>
         <v>0.60839831779583287</v>
       </c>
@@ -5466,57 +5466,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="33"/>
+      <c r="A1" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
         <v>51</v>
       </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>52</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3">
         <v>32000</v>
@@ -5550,10 +5550,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="4">
         <v>45000</v>
@@ -5587,10 +5587,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3">
         <v>28000</v>
@@ -5624,10 +5624,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="4">
         <v>50000</v>
@@ -5661,10 +5661,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="3">
         <v>35000</v>
@@ -5697,10 +5697,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="4">
         <v>60000</v>
@@ -5734,10 +5734,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3">
         <v>30000</v>
@@ -5771,10 +5771,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="4">
         <v>40000</v>
@@ -5808,10 +5808,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="3">
         <v>55000</v>
@@ -5845,10 +5845,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="4">
         <v>37000</v>
@@ -5881,10 +5881,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="3">
         <v>48000</v>
@@ -5918,10 +5918,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="4">
         <v>42000</v>
@@ -5954,7 +5954,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6">
@@ -5978,39 +5978,39 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="29"/>
+      <c r="A16" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="38"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
         <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18">
         <v>0.08</v>
       </c>
       <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" t="s">
         <v>57</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>58</v>
-      </c>
-      <c r="I18" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19">
         <v>0.1</v>
@@ -6029,7 +6029,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20">
         <v>0.05</v>
@@ -6037,7 +6037,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21">
         <v>7.0000000000000007E-2</v>
@@ -6045,7 +6045,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>0.06</v>
@@ -6053,7 +6053,7 @@
     </row>
     <row r="43" spans="27:27" x14ac:dyDescent="0.3">
       <c r="AA43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -6095,61 +6095,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="A1" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
         <v>67</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>68</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>69</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>70</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>71</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>72</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>73</v>
-      </c>
-      <c r="I3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>105000</v>
@@ -6178,7 +6178,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>68000</v>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>42000</v>
@@ -6236,7 +6236,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>75000</v>
@@ -6265,7 +6265,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8">
         <v>72000</v>
@@ -6294,7 +6294,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>140000</v>
@@ -6323,7 +6323,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10">
         <v>502000</v>
@@ -6387,7 +6387,7 @@
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
-      <c r="I1" s="39"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="18"/>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
@@ -6399,13 +6399,13 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="18"/>
-      <c r="I2" s="39"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
@@ -6417,13 +6417,13 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="12">
         <v>32000</v>
       </c>
       <c r="C3" s="18"/>
-      <c r="I3" s="39"/>
+      <c r="I3" s="34"/>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
@@ -6435,18 +6435,18 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="13">
         <v>45000</v>
       </c>
       <c r="C4" s="18"/>
-      <c r="I4" s="39"/>
+      <c r="I4" s="34"/>
       <c r="J4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
@@ -6457,15 +6457,15 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="12">
         <v>28000</v>
       </c>
       <c r="C5" s="18"/>
-      <c r="I5" s="39"/>
+      <c r="I5" s="34"/>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -6479,15 +6479,15 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="13">
         <v>50000</v>
       </c>
       <c r="C6" s="18"/>
-      <c r="I6" s="39"/>
+      <c r="I6" s="34"/>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -6501,15 +6501,15 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="12">
         <v>35000</v>
       </c>
       <c r="C7" s="18"/>
-      <c r="I7" s="39"/>
+      <c r="I7" s="34"/>
       <c r="J7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -6523,15 +6523,15 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="13">
         <v>60000</v>
       </c>
       <c r="C8" s="18"/>
-      <c r="I8" s="39"/>
+      <c r="I8" s="34"/>
       <c r="J8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -6545,15 +6545,15 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="12">
         <v>30000</v>
       </c>
       <c r="C9" s="18"/>
-      <c r="I9" s="39"/>
+      <c r="I9" s="34"/>
       <c r="J9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -6567,13 +6567,13 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="13">
         <v>40000</v>
       </c>
       <c r="C10" s="18"/>
-      <c r="I10" s="39"/>
+      <c r="I10" s="34"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
@@ -6585,13 +6585,13 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="12">
         <v>55000</v>
       </c>
       <c r="C11" s="18"/>
-      <c r="I11" s="39"/>
+      <c r="I11" s="34"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
@@ -6603,13 +6603,13 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="13">
         <v>37000</v>
       </c>
       <c r="C12" s="18"/>
-      <c r="I12" s="39"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
@@ -6621,13 +6621,13 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="12">
         <v>48000</v>
       </c>
       <c r="C13" s="18"/>
-      <c r="I13" s="39"/>
+      <c r="I13" s="34"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
@@ -6639,13 +6639,13 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="17">
         <v>42000</v>
       </c>
       <c r="C14" s="18"/>
-      <c r="I14" s="39"/>
+      <c r="I14" s="34"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
@@ -6657,7 +6657,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C15" s="18"/>
-      <c r="I15" s="39"/>
+      <c r="I15" s="34"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
     </row>
@@ -6670,7 +6670,7 @@
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
-      <c r="I16" s="39"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
@@ -6697,7 +6697,7 @@
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
-      <c r="I17" s="39"/>
+      <c r="I17" s="34"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
@@ -6724,7 +6724,7 @@
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
-      <c r="I18" s="39"/>
+      <c r="I18" s="34"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
@@ -6751,7 +6751,7 @@
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
-      <c r="I19" s="39"/>
+      <c r="I19" s="34"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
@@ -6778,7 +6778,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="39"/>
+      <c r="I20" s="34"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
@@ -6805,7 +6805,7 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="39"/>
+      <c r="I21" s="34"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
@@ -6832,7 +6832,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
-      <c r="I22" s="39"/>
+      <c r="I22" s="34"/>
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
@@ -6859,7 +6859,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
-      <c r="I23" s="39"/>
+      <c r="I23" s="34"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
@@ -6886,7 +6886,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
-      <c r="I24" s="39"/>
+      <c r="I24" s="34"/>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
@@ -6913,7 +6913,7 @@
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="39"/>
+      <c r="I25" s="34"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
@@ -6940,7 +6940,7 @@
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
-      <c r="I26" s="39"/>
+      <c r="I26" s="34"/>
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
@@ -6967,7 +6967,7 @@
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
-      <c r="I27" s="39"/>
+      <c r="I27" s="34"/>
       <c r="J27" s="18"/>
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
@@ -7334,112 +7334,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="29"/>
+      <c r="A1" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>53</v>
+      <c r="A2" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="40">
+      <c r="A3" s="35">
         <v>38000</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="35">
         <v>30025.599999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A4" s="40">
+      <c r="A4" s="35">
         <v>54000</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="35">
         <v>42045</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A5" s="40">
+      <c r="A5" s="35">
         <v>32500</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="35">
         <v>26514</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A6" s="40">
+      <c r="A6" s="35">
         <v>61000</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="35">
         <v>46035</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="40">
+      <c r="A7" s="35">
         <v>41500</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="35">
         <v>32521</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A8" s="40">
+      <c r="A8" s="35">
         <v>73000</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="35">
         <v>55048</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A9" s="40">
+      <c r="A9" s="35">
         <v>34800</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="35">
         <v>27830</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A10" s="40">
+      <c r="A10" s="35">
         <v>47200</v>
       </c>
-      <c r="B10" s="40">
+      <c r="B10" s="35">
         <v>37220</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A11" s="40">
+      <c r="A11" s="35">
         <v>66500</v>
       </c>
-      <c r="B11" s="40">
+      <c r="B11" s="35">
         <v>50538.5</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A12" s="40">
+      <c r="A12" s="35">
         <v>43900</v>
       </c>
-      <c r="B12" s="40">
+      <c r="B12" s="35">
         <v>34422.199999999997</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A13" s="40">
+      <c r="A13" s="35">
         <v>58500</v>
       </c>
-      <c r="B13" s="40">
+      <c r="B13" s="35">
         <v>44538.400000000001</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A14" s="40">
+      <c r="A14" s="35">
         <v>50300</v>
       </c>
-      <c r="B14" s="40">
+      <c r="B14" s="35">
         <v>39342</v>
       </c>
     </row>
